--- a/src/excel-data/tohoku.xlsx
+++ b/src/excel-data/tohoku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D697D66D-FF83-5A42-9B29-284C2195B8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC18E33-9D49-514D-89D2-5A0C4877810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23140" yWindow="20520" windowWidth="30240" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="东北周游券" sheetId="1" r:id="rId1"/>
@@ -278,13 +278,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>现金购票; 购票机购票</t>
-    <rPh sb="6" eb="7">
-      <t>ge zhan</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://sendaitravelpass.jp/</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -301,13 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>现金购票; 电子购票；购票机购票</t>
-    <rPh sb="6" eb="7">
-      <t>ge zhan</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://maas-portal.com/portal/tickets/3719</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -329,13 +315,6 @@
   </si>
   <si>
     <t>https://aoimorirailway.com/archives/otoku-ticket/1dp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>现金购票; 便利店购票；购票机购票</t>
-    <rPh sb="6" eb="7">
-      <t>bian li d</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -353,25 +332,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>现金购票; 电子购票；购票机购票; 可坐急行</t>
-    <rPh sb="6" eb="7">
-      <t>ge zhan</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ke yong</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ji xing</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>xing</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>aoimori-1day-pass</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -409,35 +369,6 @@
   </si>
   <si>
     <t>/images/coverage/daikokuten-free-pass.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>现金购票; 购票机购票; 可坐急行</t>
-    <rPh sb="8" eb="9">
-      <t>ke yong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ji xing</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>xing</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>现金购票; 购票机购票</t>
-    <rPh sb="8" eb="9">
-      <t>ke yong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ji xing</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -483,19 +414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>现金购票; 电子购票；购票机购票</t>
-    <rPh sb="8" eb="9">
-      <t>ke yong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ji xing</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://pass.ryde-go.com/products/6PV8ZDMSD3G5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -507,15 +425,7 @@
     <t>https://pass.ryde-go.com/products/KVD3E94SQ30J</t>
   </si>
   <si>
-    <t>现金购票; 电子购票；购票机购票；地铁车站事务所购票</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://www.kotsu.city.sendai.jp/fare/waribiki.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>现金购票; 购票机购票；地铁车站事务所购票</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -649,20 +559,6 @@
     <t>山形; 东北</t>
     <rPh sb="0" eb="1">
       <t>shan xing xian</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※最多1名成人可携带2名儿童（不允许成人单独使用）</t>
-    <rPh sb="22" eb="23">
-      <t>shi y</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※最多1名成人可携带2名儿童（允许成人单独使用）</t>
-    <rPh sb="21" eb="22">
-      <t>shi y</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1259,24 +1155,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>跨地区旅行; 现金购票; 电子购票；购票机购票</t>
-    <rPh sb="8" eb="9">
-      <t>ke yong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zuo</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ji xing</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>跨地区旅行; 现金购票; 周游券贩卖所购票；车内购票</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>跨地区旅行; 现金购票；电子购票；购票机购票；经典周游券</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1360,6 +1239,117 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>yi ji</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现金购票; 车站购票</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现金购票; 电子购票；车站购票</t>
+    <rPh sb="6" eb="7">
+      <t>ge zhan</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现金购票; 便利店购票；车站购票</t>
+    <rPh sb="6" eb="7">
+      <t>bian li d</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现金购票; 电子购票；车站购票; 可坐急行</t>
+    <rPh sb="6" eb="7">
+      <t>ge zhan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ji xing</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现金购票; 车站购票; 可坐急行</t>
+    <rPh sb="8" eb="9">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji xing</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xing</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现金购票; 车站购票</t>
+    <rPh sb="8" eb="9">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ji xing</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>跨地区旅行; 现金购票; 电子购票；车站购票</t>
+    <rPh sb="8" eb="9">
+      <t>ke yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji xing</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现金购票; 电子购票；车站购票</t>
+    <rPh sb="8" eb="9">
+      <t>ke yong</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji xing</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>跨地区旅行; 现金购票；电子购票；车站购票；经典周游券</t>
+  </si>
+  <si>
+    <t>现金购票; 车站购票；</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>现金购票; 电子购票；车站购票；</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※最多1名成人可免费带2名儿童（不允许成人单独使用）</t>
+    <rPh sb="8" eb="9">
+      <t>mian fei</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shi y</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※最多1名成人可免费带2名儿童（允许成人单独使用）</t>
+    <rPh sb="21" eb="22">
+      <t>shi y</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1793,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J8" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="V9" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1834,7 +1824,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
@@ -1917,10 +1907,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E2" s="1">
         <v>3880</v>
@@ -1941,7 +1931,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>25</v>
@@ -1956,7 +1946,7 @@
         <v>26</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>27</v>
@@ -1965,10 +1955,10 @@
         <v>28</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>24</v>
@@ -1983,7 +1973,7 @@
         <v>24</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="1" customFormat="1">
@@ -1994,10 +1984,10 @@
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E3" s="1">
         <v>2720</v>
@@ -2012,7 +2002,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>25</v>
@@ -2027,7 +2017,7 @@
         <v>26</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>32</v>
@@ -2039,7 +2029,7 @@
         <v>29</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>24</v>
@@ -2054,7 +2044,7 @@
         <v>24</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="64">
@@ -2065,10 +2055,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E4" s="1">
         <v>2720</v>
@@ -2083,7 +2073,7 @@
         <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>34</v>
@@ -2095,10 +2085,10 @@
         <v>24</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>35</v>
@@ -2110,7 +2100,7 @@
         <v>36</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>24</v>
@@ -2125,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="64">
@@ -2136,10 +2126,10 @@
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E5" s="1">
         <v>2510</v>
@@ -2154,7 +2144,7 @@
         <v>24</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>34</v>
@@ -2166,10 +2156,10 @@
         <v>24</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>38</v>
@@ -2181,10 +2171,10 @@
         <v>36</v>
       </c>
       <c r="W5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>30</v>
@@ -2196,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="1" customFormat="1" ht="64">
@@ -2207,10 +2197,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E6" s="1">
         <v>2520</v>
@@ -2225,7 +2215,7 @@
         <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>34</v>
@@ -2240,7 +2230,7 @@
         <v>26</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>40</v>
@@ -2249,13 +2239,13 @@
         <v>28</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>30</v>
@@ -2267,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="1" customFormat="1">
@@ -2275,13 +2265,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E7" s="1">
         <v>1000</v>
@@ -2296,7 +2286,7 @@
         <v>24</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>34</v>
@@ -2311,10 +2301,10 @@
         <v>26</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>28</v>
@@ -2323,10 +2313,10 @@
         <v>41</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>30</v>
@@ -2343,13 +2333,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E8" s="1">
         <v>2100</v>
@@ -2367,7 +2357,7 @@
         <v>1530</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>96</v>
+        <v>239</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>34</v>
@@ -2379,13 +2369,13 @@
         <v>24</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>28</v>
@@ -2394,7 +2384,7 @@
         <v>41</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>24</v>
@@ -2409,7 +2399,7 @@
         <v>1</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="1" customFormat="1" ht="144">
@@ -2420,10 +2410,10 @@
         <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E9" s="1">
         <v>2500</v>
@@ -2438,10 +2428,10 @@
         <v>1200</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>34</v>
@@ -2456,7 +2446,7 @@
         <v>26</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>44</v>
@@ -2465,13 +2455,13 @@
         <v>28</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>30</v>
@@ -2491,10 +2481,10 @@
         <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="E10" s="1">
         <v>3500</v>
@@ -2509,7 +2499,7 @@
         <v>24</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>25</v>
@@ -2524,7 +2514,7 @@
         <v>26</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>45</v>
@@ -2533,10 +2523,10 @@
         <v>28</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>24</v>
@@ -2551,7 +2541,7 @@
         <v>24</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="1" customFormat="1" ht="128">
@@ -2559,13 +2549,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E11" s="1">
         <v>1500</v>
@@ -2580,7 +2570,7 @@
         <v>24</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>34</v>
@@ -2595,10 +2585,10 @@
         <v>26</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>28</v>
@@ -2607,7 +2597,7 @@
         <v>41</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>24</v>
@@ -2622,7 +2612,7 @@
         <v>24</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:28" s="1" customFormat="1" ht="16">
@@ -2630,13 +2620,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E12" s="1">
         <v>1480</v>
@@ -2651,7 +2641,7 @@
         <v>24</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>34</v>
@@ -2666,19 +2656,19 @@
         <v>26</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>24</v>
@@ -2693,7 +2683,7 @@
         <v>24</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:28" s="1" customFormat="1" ht="48">
@@ -2704,10 +2694,10 @@
         <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E13" s="1">
         <v>1100</v>
@@ -2722,7 +2712,7 @@
         <v>24</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>112</v>
+        <v>242</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>34</v>
@@ -2734,10 +2724,10 @@
         <v>24</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>47</v>
@@ -2749,7 +2739,7 @@
         <v>41</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>24</v>
@@ -2764,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:28" s="1" customFormat="1" ht="32">
@@ -2772,13 +2762,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E14" s="1">
         <v>3000</v>
@@ -2805,13 +2795,13 @@
         <v>24</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>28</v>
@@ -2820,10 +2810,10 @@
         <v>41</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>30</v>
@@ -2835,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:28" s="1" customFormat="1">
@@ -2846,10 +2836,10 @@
         <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E15" s="1">
         <v>6100</v>
@@ -2864,7 +2854,7 @@
         <v>24</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>25</v>
@@ -2879,7 +2869,7 @@
         <v>26</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>49</v>
@@ -2891,10 +2881,10 @@
         <v>41</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>30</v>
@@ -2914,10 +2904,10 @@
         <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E16" s="1">
         <v>1500</v>
@@ -2932,7 +2922,7 @@
         <v>24</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>34</v>
@@ -2944,13 +2934,13 @@
         <v>24</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>28</v>
@@ -2959,10 +2949,10 @@
         <v>41</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>30</v>
@@ -2982,10 +2972,10 @@
         <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E17" s="1">
         <v>2400</v>
@@ -3000,7 +2990,7 @@
         <v>24</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>34</v>
@@ -3012,10 +3002,10 @@
         <v>24</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>52</v>
@@ -3027,10 +3017,10 @@
         <v>41</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>30</v>
@@ -3050,10 +3040,10 @@
         <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E18" s="1">
         <v>2600</v>
@@ -3068,7 +3058,7 @@
         <v>24</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>34</v>
@@ -3077,10 +3067,10 @@
         <v>24</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>54</v>
@@ -3092,10 +3082,10 @@
         <v>41</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>30</v>
@@ -3115,10 +3105,10 @@
         <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E19" s="1">
         <v>1000</v>
@@ -3133,7 +3123,7 @@
         <v>24</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>34</v>
@@ -3148,7 +3138,7 @@
         <v>56</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>57</v>
@@ -3160,10 +3150,10 @@
         <v>41</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>30</v>
@@ -3175,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>155</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:28" s="1" customFormat="1">
@@ -3186,10 +3176,10 @@
         <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E20" s="1">
         <v>1000</v>
@@ -3206,7 +3196,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="N20" s="1" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>34</v>
@@ -3218,10 +3208,10 @@
         <v>24</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>59</v>
@@ -3233,10 +3223,10 @@
         <v>41</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>30</v>
@@ -3248,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:28" s="1" customFormat="1">
@@ -3259,10 +3249,10 @@
         <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="E21" s="1">
         <v>840</v>
@@ -3274,7 +3264,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="1" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>34</v>
@@ -3289,7 +3279,7 @@
         <v>56</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>61</v>
@@ -3301,13 +3291,13 @@
         <v>41</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="Z21" s="1">
         <v>5</v>
@@ -3324,10 +3314,10 @@
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E22" s="1">
         <v>620</v>
@@ -3339,7 +3329,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="1" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>34</v>
@@ -3348,10 +3338,10 @@
         <v>24</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>61</v>
@@ -3363,13 +3353,13 @@
         <v>41</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="Z22" s="1">
         <v>5</v>
@@ -3386,10 +3376,10 @@
         <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E23" s="1">
         <v>920</v>
@@ -3407,7 +3397,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="1" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>34</v>
@@ -3419,10 +3409,10 @@
         <v>24</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>63</v>
@@ -3434,13 +3424,13 @@
         <v>41</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="Z23" s="1">
         <v>5</v>
@@ -3457,10 +3447,10 @@
         <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E24" s="1">
         <v>1500</v>
@@ -3478,7 +3468,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>34</v>
@@ -3493,7 +3483,7 @@
         <v>26</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>65</v>
@@ -3505,7 +3495,7 @@
         <v>41</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>24</v>
@@ -3520,7 +3510,7 @@
         <v>24</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="1" customFormat="1">
@@ -3531,10 +3521,10 @@
         <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="E25" s="1">
         <v>600</v>
@@ -3552,7 +3542,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>34</v>
@@ -3567,7 +3557,7 @@
         <v>26</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>67</v>
@@ -3579,7 +3569,7 @@
         <v>41</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>24</v>
@@ -3594,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:28" s="1" customFormat="1">
@@ -3605,10 +3595,10 @@
         <v>68</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E26" s="1">
         <v>900</v>
@@ -3626,7 +3616,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>34</v>
@@ -3638,10 +3628,10 @@
         <v>24</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>69</v>
@@ -3653,7 +3643,7 @@
         <v>41</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>24</v>
@@ -3668,7 +3658,7 @@
         <v>1</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:28" s="1" customFormat="1" ht="64">
@@ -3679,10 +3669,10 @@
         <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E27" s="1">
         <v>1000</v>
@@ -3700,7 +3690,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>34</v>
@@ -3715,7 +3705,7 @@
         <v>26</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>71</v>
@@ -3742,7 +3732,7 @@
         <v>24</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:28" s="1" customFormat="1">
@@ -3753,10 +3743,10 @@
         <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E28" s="1">
         <v>1300</v>
@@ -3774,7 +3764,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>34</v>
@@ -3789,7 +3779,7 @@
         <v>26</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>73</v>
@@ -3801,7 +3791,7 @@
         <v>41</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>24</v>
@@ -3816,7 +3806,7 @@
         <v>24</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:28" s="1" customFormat="1">
@@ -3827,10 +3817,10 @@
         <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E29" s="1">
         <v>1500</v>
@@ -3848,7 +3838,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>34</v>
@@ -3863,7 +3853,7 @@
         <v>26</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>75</v>
@@ -3875,7 +3865,7 @@
         <v>41</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>24</v>
@@ -3890,7 +3880,7 @@
         <v>24</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:28" s="1" customFormat="1">
@@ -3901,10 +3891,10 @@
         <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E30" s="1">
         <v>5150</v>
@@ -3922,7 +3912,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>25</v>
@@ -3937,7 +3927,7 @@
         <v>26</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>77</v>
@@ -3949,7 +3939,7 @@
         <v>41</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>24</v>
@@ -3972,10 +3962,10 @@
         <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E31" s="1">
         <v>4190</v>
@@ -3993,7 +3983,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>25</v>
@@ -4008,7 +3998,7 @@
         <v>26</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>79</v>
@@ -4020,7 +4010,7 @@
         <v>41</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>24</v>
@@ -4040,13 +4030,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E32" s="1">
         <v>30000</v>
@@ -4055,7 +4045,7 @@
         <v>15000</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O32" s="1">
         <v>5</v>
@@ -4064,22 +4054,22 @@
         <v>26</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="W32" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="X32" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>30</v>
@@ -4093,13 +4083,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="E33" s="1">
         <v>48000</v>
@@ -4108,7 +4098,7 @@
         <v>24000</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O33" s="1">
         <v>10</v>
@@ -4117,22 +4107,22 @@
         <v>26</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="X33" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>30</v>

--- a/src/excel-data/tohoku.xlsx
+++ b/src/excel-data/tohoku.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC18E33-9D49-514D-89D2-5A0C4877810B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043A0D93-CE42-9B4F-9EC6-DA4452F01265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="东北周游券" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="280">
   <si>
     <t>sortOrder</t>
   </si>
@@ -109,9 +109,6 @@
     <t>不问国籍所有游客皆可购买</t>
   </si>
   <si>
-    <t>特急电车; 急行电车; 普通电车</t>
-  </si>
-  <si>
     <t>regional</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
   </si>
   <si>
     <t>chiisana-tabi-holiday-pass</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>/images/coverage/chiisana-tabi-holiday-pass.png</t>
@@ -381,20 +375,6 @@
   </si>
   <si>
     <t>https://www.obako5.com/%E6%A5%BD%E6%A5%BD%E9%81%8A%E9%81%8A%E4%B9%97%E8%BB%8A%E5%88%B8%EF%BC%91%E6%97%A5%E3%83%95%E3%83%AA%E3%83%BC%E5%88%B8/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【利用期間】周末以及4月29日～5月5日
-7月20日～7月31日,8月8日～8月31日
-12月23日～1月7日の毎日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【利用期間】周末以及4月28日～5月6日,8月12日～8月18日,12月29日～1月3日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【利用期間】周末以及8月1日～4日,12月30日～1月3日</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1215,34 +1195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【利用期間】周末以及4月29日～5月5日,7月20日～8月31日,12月23日～1月7日の毎日
-※坐普通电车以外需另外加钱</t>
-    <rPh sb="1" eb="3">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キカn</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhou mo</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yi ji</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【利用期間】周末以及4月29日～5月5日,7月20日～8月31日,12月23日～1月7日の毎日
-※坐普通电车以外需另外加钱</t>
-    <rPh sb="0" eb="1">
-      <t>zhou mo</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yi ji</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>现金购票; 车站购票</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1352,13 +1304,128 @@
       <t>shi y</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日文名称</t>
+  </si>
+  <si>
+    <t>五能線フリーパス</t>
+  </si>
+  <si>
+    <t>仙台エリアフリーパス</t>
+  </si>
+  <si>
+    <t>ちょっ旅ホリデーパス</t>
+  </si>
+  <si>
+    <t>いわてホリデーパス</t>
+  </si>
+  <si>
+    <t>あおもりホリデーパス</t>
+  </si>
+  <si>
+    <t>あおもりだいこくてんフリーパス</t>
+  </si>
+  <si>
+    <t>あおもり1日フリーパス</t>
+  </si>
+  <si>
+    <t>秋田内陸1日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>秋田内陸2日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>バースデーフリーきっぷ</t>
+  </si>
+  <si>
+    <t>沿線まるごとおもちゃフリーパス</t>
+  </si>
+  <si>
+    <t>らくらく遊遊フリーきっぷ</t>
+  </si>
+  <si>
+    <t>IGRホリデーフリーきっぷ</t>
+  </si>
+  <si>
+    <t>三陸鉄道全線フリーきっぷ</t>
+  </si>
+  <si>
+    <t>三陸鉄道1日フリーきっぷ（盛〜釜石間）</t>
+  </si>
+  <si>
+    <t>三陸鉄道1日フリーきっぷ（釜石〜宮古間）</t>
+  </si>
+  <si>
+    <t>三陸鉄道1日フリーきっぷ（宮古〜久慈間）</t>
+  </si>
+  <si>
+    <t>やまがた親子三代フリーきっぷ</t>
+  </si>
+  <si>
+    <t>やまがた土休日フリーパス</t>
+  </si>
+  <si>
+    <t>仙台市地下鉄一日乗車券（平日）</t>
+  </si>
+  <si>
+    <t>仙台市地下鉄一日乗車券（土日祝用）</t>
+  </si>
+  <si>
+    <t>るーぷる仙台・地下鉄共通一日乗車券</t>
+  </si>
+  <si>
+    <t>飯坂温泉1日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>阿武急の日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>阿武急おトクきっぷ</t>
+  </si>
+  <si>
+    <t>福島きて！みて！のって！1日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>飯坂温泉ゆったりフリーきっぷ</t>
+  </si>
+  <si>
+    <t>花ももフリーパス</t>
+  </si>
+  <si>
+    <t>会津・日光フリーパス（若松エリア）</t>
+  </si>
+  <si>
+    <t>会津・日光フリーパス（南会津エリア）</t>
+  </si>
+  <si>
+    <t>JR東日本パス（東北エリア5日間）</t>
+  </si>
+  <si>
+    <t>JR東日本パス（東北エリア10日間）</t>
+  </si>
+  <si>
+    <t>【利用期間】周末假日以及4月29日～5月5日,7月20日～8月31日,12月23日～1月7日の毎日
+※坐普通电车以外需另外加钱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【利用期間】周末假日以及4月29日～5月5日
+7月20日～7月31日,8月8日～8月31日
+12月23日～1月7日の毎日</t>
+  </si>
+  <si>
+    <t>【利用期間】周末假日以及4月28日～5月6日,8月12日～8月18日,12月29日～1月3日</t>
+  </si>
+  <si>
+    <t>【利用期間】周末假日以及8月1日～4日,12月30日～1月3日</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1400,8 +1467,26 @@
       <name val="黒体-簡 ミディアム"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="黒体-簡 ミディアム"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1412,6 +1497,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1428,7 +1519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1441,6 +1532,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1781,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB152"/>
+  <dimension ref="A1:AF152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V9" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1813,7 +1907,7 @@
     <col min="29" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:32">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1824,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
@@ -1839,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>7</v>
@@ -1848,10 +1942,10 @@
         <v>8</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>21</v>
@@ -1896,10 +1990,13 @@
         <v>22</v>
       </c>
       <c r="AB1" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="1" customFormat="1">
+        <v>81</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="1" customFormat="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1907,10 +2004,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E2" s="1">
         <v>3880</v>
@@ -1931,7 +2028,7 @@
         <v>24</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>25</v>
@@ -1946,7 +2043,7 @@
         <v>26</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>27</v>
@@ -1955,16 +2052,16 @@
         <v>28</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z2" s="1">
         <v>3</v>
@@ -1973,21 +2070,24 @@
         <v>24</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1">
+        <v>229</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="1" customFormat="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E3" s="1">
         <v>2720</v>
@@ -2002,7 +2102,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>25</v>
@@ -2017,25 +2117,25 @@
         <v>26</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="Z3" s="1">
         <v>5</v>
@@ -2044,21 +2144,24 @@
         <v>24</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="64">
+        <v>229</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="1" customFormat="1" ht="64">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1">
         <v>2720</v>
@@ -2073,10 +2176,10 @@
         <v>24</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>34</v>
+        <v>230</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>24</v>
@@ -2085,28 +2188,28 @@
         <v>24</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z4" s="1">
         <v>4</v>
@@ -2115,21 +2218,24 @@
         <v>1</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="64">
+        <v>276</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" s="1" customFormat="1" ht="64">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E5" s="1">
         <v>2510</v>
@@ -2144,10 +2250,10 @@
         <v>24</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>34</v>
+        <v>231</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>24</v>
@@ -2156,28 +2262,28 @@
         <v>24</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z5" s="1">
         <v>4</v>
@@ -2186,21 +2292,24 @@
         <v>1</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="64">
+        <v>276</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" s="1" customFormat="1" ht="64">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E6" s="1">
         <v>2520</v>
@@ -2215,10 +2324,10 @@
         <v>24</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>34</v>
+        <v>231</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>24</v>
@@ -2230,25 +2339,25 @@
         <v>26</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z6" s="1">
         <v>4</v>
@@ -2257,21 +2366,24 @@
         <v>1</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="1" customFormat="1">
+        <v>276</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" s="1" customFormat="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1">
         <v>1000</v>
@@ -2286,10 +2398,10 @@
         <v>24</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>34</v>
+        <v>231</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>24</v>
@@ -2301,25 +2413,25 @@
         <v>26</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z7" s="1">
         <v>3</v>
@@ -2327,19 +2439,22 @@
       <c r="AA7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" ht="80">
+      <c r="AF7" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="1" customFormat="1" ht="80">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E8" s="1">
         <v>2100</v>
@@ -2357,10 +2472,10 @@
         <v>1530</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>34</v>
+        <v>232</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>24</v>
@@ -2369,28 +2484,28 @@
         <v>24</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z8" s="1">
         <v>3</v>
@@ -2399,21 +2514,24 @@
         <v>1</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" ht="144">
+        <v>277</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="1" customFormat="1" ht="144">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E9" s="1">
         <v>2500</v>
@@ -2428,13 +2546,13 @@
         <v>1200</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>34</v>
+        <v>233</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>24</v>
@@ -2446,25 +2564,25 @@
         <v>26</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="W9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="X9" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="Y9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z9" s="1">
         <v>3</v>
@@ -2472,19 +2590,22 @@
       <c r="AA9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" s="1" customFormat="1">
+      <c r="AF9" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="1" customFormat="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E10" s="1">
         <v>3500</v>
@@ -2499,7 +2620,7 @@
         <v>24</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>25</v>
@@ -2514,25 +2635,25 @@
         <v>26</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z10" s="1">
         <v>3</v>
@@ -2541,21 +2662,24 @@
         <v>24</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="1" customFormat="1" ht="128">
+        <v>228</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="1" customFormat="1" ht="128">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E11" s="1">
         <v>1500</v>
@@ -2570,10 +2694,10 @@
         <v>24</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>34</v>
+        <v>235</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>24</v>
@@ -2585,25 +2709,25 @@
         <v>26</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z11" s="1">
         <v>4</v>
@@ -2612,21 +2736,24 @@
         <v>24</v>
       </c>
       <c r="AB11" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" s="1" customFormat="1" ht="16">
+        <v>227</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="1" customFormat="1" ht="16">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E12" s="1">
         <v>1480</v>
@@ -2641,10 +2768,10 @@
         <v>24</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>34</v>
+        <v>235</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>24</v>
@@ -2656,25 +2783,25 @@
         <v>26</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z12" s="1">
         <v>4</v>
@@ -2683,21 +2810,24 @@
         <v>24</v>
       </c>
       <c r="AB12" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="1" customFormat="1" ht="48">
+        <v>105</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="1" customFormat="1" ht="48">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E13" s="1">
         <v>1100</v>
@@ -2712,10 +2842,10 @@
         <v>24</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>34</v>
+        <v>235</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>24</v>
@@ -2724,28 +2854,28 @@
         <v>24</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z13" s="1">
         <v>3</v>
@@ -2754,21 +2884,24 @@
         <v>1</v>
       </c>
       <c r="AB13" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" s="1" customFormat="1" ht="32">
+        <v>278</v>
+      </c>
+      <c r="AF13" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="1" customFormat="1" ht="32">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E14" s="1">
         <v>3000</v>
@@ -2785,8 +2918,8 @@
       <c r="N14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>34</v>
+      <c r="O14" s="1">
+        <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>24</v>
@@ -2795,28 +2928,28 @@
         <v>24</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z14" s="1">
         <v>4</v>
@@ -2825,21 +2958,24 @@
         <v>1</v>
       </c>
       <c r="AB14" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" s="1" customFormat="1">
+        <v>279</v>
+      </c>
+      <c r="AF14" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="1" customFormat="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E15" s="1">
         <v>6100</v>
@@ -2854,7 +2990,7 @@
         <v>24</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>25</v>
@@ -2869,25 +3005,25 @@
         <v>26</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z15" s="1">
         <v>3</v>
@@ -2895,19 +3031,22 @@
       <c r="AA15" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" s="1" customFormat="1" ht="16">
+      <c r="AF15" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="1" customFormat="1" ht="16">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E16" s="1">
         <v>1500</v>
@@ -2922,10 +3061,10 @@
         <v>24</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>34</v>
+        <v>237</v>
+      </c>
+      <c r="O16" s="10">
+        <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>24</v>
@@ -2934,28 +3073,28 @@
         <v>24</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z16" s="1">
         <v>3</v>
@@ -2963,19 +3102,22 @@
       <c r="AA16" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" s="1" customFormat="1">
+      <c r="AF16" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="1" customFormat="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E17" s="1">
         <v>2400</v>
@@ -2990,10 +3132,10 @@
         <v>24</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>34</v>
+        <v>237</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>24</v>
@@ -3002,28 +3144,28 @@
         <v>24</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z17" s="1">
         <v>3</v>
@@ -3031,19 +3173,22 @@
       <c r="AA17" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" s="1" customFormat="1" ht="16">
+      <c r="AF17" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="1" customFormat="1" ht="16">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E18" s="1">
         <v>2600</v>
@@ -3058,37 +3203,37 @@
         <v>24</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>34</v>
+        <v>237</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z18" s="1">
         <v>3</v>
@@ -3096,19 +3241,22 @@
       <c r="AA18" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" s="1" customFormat="1">
+      <c r="AF18" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="1" customFormat="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E19" s="1">
         <v>1000</v>
@@ -3123,10 +3271,10 @@
         <v>24</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>34</v>
+        <v>237</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>24</v>
@@ -3135,28 +3283,28 @@
         <v>24</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z19" s="1">
         <v>4</v>
@@ -3165,21 +3313,24 @@
         <v>1</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" s="1" customFormat="1">
+        <v>241</v>
+      </c>
+      <c r="AF19" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="1" customFormat="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E20" s="1">
         <v>1000</v>
@@ -3196,10 +3347,10 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="N20" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>34</v>
+        <v>237</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>24</v>
@@ -3208,28 +3359,28 @@
         <v>24</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z20" s="1">
         <v>4</v>
@@ -3238,21 +3389,24 @@
         <v>1</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" s="1" customFormat="1">
+        <v>242</v>
+      </c>
+      <c r="AF20" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="1" customFormat="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E21" s="1">
         <v>840</v>
@@ -3264,10 +3418,10 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>34</v>
+        <v>239</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>24</v>
@@ -3276,28 +3430,28 @@
         <v>24</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W21" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Z21" s="1">
         <v>5</v>
@@ -3305,19 +3459,22 @@
       <c r="AA21" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" s="1" customFormat="1" ht="16">
+      <c r="AF21" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="1" customFormat="1" ht="16">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E22" s="1">
         <v>620</v>
@@ -3329,37 +3486,37 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>34</v>
+        <v>239</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Z22" s="1">
         <v>5</v>
@@ -3367,19 +3524,22 @@
       <c r="AA22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" s="1" customFormat="1">
+      <c r="AF22" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="1" customFormat="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E23" s="1">
         <v>920</v>
@@ -3397,10 +3557,10 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>34</v>
+        <v>240</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>24</v>
@@ -3409,28 +3569,28 @@
         <v>24</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W23" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="X23" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="Z23" s="1">
         <v>5</v>
@@ -3438,19 +3598,22 @@
       <c r="AA23" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" s="1" customFormat="1">
+      <c r="AF23" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="1" customFormat="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E24" s="1">
         <v>1500</v>
@@ -3468,10 +3631,10 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>34</v>
+        <v>153</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>24</v>
@@ -3483,25 +3646,25 @@
         <v>26</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W24" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z24" s="1">
         <v>3</v>
@@ -3510,21 +3673,24 @@
         <v>24</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" s="1" customFormat="1">
+        <v>143</v>
+      </c>
+      <c r="AF24" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="1" customFormat="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E25" s="1">
         <v>600</v>
@@ -3542,10 +3708,10 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>24</v>
@@ -3557,25 +3723,25 @@
         <v>26</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W25" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z25" s="1">
         <v>3</v>
@@ -3584,21 +3750,24 @@
         <v>1</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="1" customFormat="1">
+        <v>177</v>
+      </c>
+      <c r="AF25" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="1" customFormat="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E26" s="1">
         <v>900</v>
@@ -3616,10 +3785,10 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>34</v>
+        <v>157</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>24</v>
@@ -3628,28 +3797,28 @@
         <v>24</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W26" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z26" s="1">
         <v>3</v>
@@ -3658,21 +3827,24 @@
         <v>1</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="1" customFormat="1" ht="64">
+        <v>120</v>
+      </c>
+      <c r="AF26" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="1" customFormat="1" ht="64">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E27" s="1">
         <v>1000</v>
@@ -3690,10 +3862,10 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>34</v>
+        <v>153</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>24</v>
@@ -3705,16 +3877,16 @@
         <v>26</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W27" s="1" t="s">
         <v>24</v>
@@ -3723,7 +3895,7 @@
         <v>24</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z27" s="1">
         <v>5</v>
@@ -3732,21 +3904,24 @@
         <v>24</v>
       </c>
       <c r="AB27" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" s="1" customFormat="1">
+        <v>122</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" s="1" customFormat="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E28" s="1">
         <v>1300</v>
@@ -3764,10 +3939,10 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>34</v>
+        <v>158</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>24</v>
@@ -3779,25 +3954,25 @@
         <v>26</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W28" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z28" s="1">
         <v>4</v>
@@ -3806,21 +3981,24 @@
         <v>24</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" s="1" customFormat="1">
+        <v>143</v>
+      </c>
+      <c r="AF28" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="1" customFormat="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E29" s="1">
         <v>1500</v>
@@ -3838,10 +4016,10 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>34</v>
+        <v>158</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>24</v>
@@ -3853,25 +4031,25 @@
         <v>26</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z29" s="1">
         <v>3</v>
@@ -3880,21 +4058,24 @@
         <v>24</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" s="1" customFormat="1">
+        <v>144</v>
+      </c>
+      <c r="AF29" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="1" customFormat="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E30" s="1">
         <v>5150</v>
@@ -3912,7 +4093,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>25</v>
@@ -3927,25 +4108,25 @@
         <v>26</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W30" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z30" s="1">
         <v>3</v>
@@ -3953,19 +4134,22 @@
       <c r="AA30" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" s="1" customFormat="1" ht="16">
+      <c r="AF30" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="1" customFormat="1" ht="16">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E31" s="1">
         <v>4190</v>
@@ -3983,7 +4167,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>25</v>
@@ -3998,25 +4182,25 @@
         <v>26</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="W31" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z31" s="1">
         <v>3</v>
@@ -4024,19 +4208,22 @@
       <c r="AA31" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" s="1" customFormat="1">
+      <c r="AF31" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="1" customFormat="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E32" s="1">
         <v>30000</v>
@@ -4045,7 +4232,7 @@
         <v>15000</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O32" s="1">
         <v>5</v>
@@ -4054,42 +4241,45 @@
         <v>26</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="T32" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="X32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="U32" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="W32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="X32" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="Y32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z32" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" s="1" customFormat="1">
+      <c r="AF32" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" s="1" customFormat="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E33" s="1">
         <v>48000</v>
@@ -4098,7 +4288,7 @@
         <v>24000</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O33" s="1">
         <v>10</v>
@@ -4107,28 +4297,31 @@
         <v>26</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="T33" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="W33" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="U33" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="W33" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="X33" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z33" s="1">
         <v>5</v>
+      </c>
+      <c r="AF33" s="9" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="11:13">
@@ -4462,7 +4655,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="O1:AA1 A1:C1 B27 B13 G8 G23:G25 G9:G11 H1:H3 H26:H31 H8 H23:H25 F1:G3 F26:G27 O11:R11 O2:R2 T2:U2 X2:AA2 O19:R19 O12:R12 X12:Y12 O3:R3 X3:Y3 T3:V3 O4:Q4 T4:V4 X4:Y4 O5:Q5 T5:V5 Y5 O6:R6 Y6 B6 H4:H7 F4:G7 O7:R7 Y7:AA7 T6:U6 U7:V7 E8 O8:Q8 U8:V8 X8:Y8 O9:R9 U9 Y9:AA9 B9 E9 B10 E10 O10:R10 U10 U11:V11 E11 U12 O13:Q13 U13:V13 B25 E14 O14:Q14 U14:V14 E7 X10:AA10 G13:G21 X11:Y11 E13 O21:Q21 O20:Q20 T20:U20 O31:R31 O23:Q23 T23:V23 X13:Z13 Y14 O15:R15 T15:V15 O16:Q17 T18:V18 O18:P18 Y15:AA15 B15 E15 B16 E16 B17 E17 B18 E18 U16:V16 Y16:Z16 T17:V17 Y17:Z17 Y18:Z18 Y19 T19:V19 B19 E19 Y20 B20 E20 B21 E21 T21:V21 X21 B23 E23 O24:R24 X24:AA24 T24:V24 O25:R25 T27:Y27 O30:R30 T30:V30 T31:V31 B24 E24 T29:V29 X29:AA29 B31 B28 T28:V28 X28:Y28 F29:G31 F28 T25:V25 X25:Z25 T26:V26 X26:Z26 B26 E26 O27:R29 O26:Q26 E27 X30:AA30 X31:AA31 AA3 AA11 AA12 AA28 AA27 AA21 A3:B3 A2:B2 E2 E25 B29 E29 B30 E30 E31 E3 B4 E4 B5 E5 E6 E1" numberStoredAsText="1"/>
+    <ignoredError sqref="O1:AA1 A1:C1 B27 B13 G8 G23:G25 G9:G11 H1:H3 H26:H31 H8 H23:H25 F1:G3 F26:G27 P11:R11 O2:R2 T2:U2 X2:AA2 P19:R19 P12:R12 X12:Y12 O3:R3 X3:Y3 T3:U3 P4:Q4 T4:V4 X4:Y4 P5:Q5 T5:V5 Y5 P6:R6 Y6 B6 H4:H7 F4:G7 P7:R7 Y7:AA7 T6:U6 U7:V7 E8 P8:Q8 U8:V8 X8:Y8 P9:R9 U9 Y9:AA9 B9 E9 B10 E10 O10:R10 U10 U11:V11 E11 U12 P13:Q13 U13:V13 B25 E14 P14:Q14 U14:V14 E7 X10:AA10 G13:G21 X11:Y11 E13 P21:Q21 P20:Q20 T20:U20 O31:R31 P23:Q23 T23:V23 X13:Z13 Y14 O15:R15 T15:V15 P17:Q17 T18:V18 P18 Y15:AA15 B15 E15 B16 E16 B17 E17 B18 E18 U16:V16 Y16:Z16 T17:V17 Y17:Z17 Y18:Z18 Y19 T19:V19 B19 E19 Y20 B20 E20 B21 E21 T21:V21 X21 B23 E23 P24:R24 X24:AA24 T24:V24 P25:R25 T27:Y27 O30:R30 T30:V30 T31:V31 B24 E24 T29:V29 X29:AA29 B31 B28 T28:V28 X28:Y28 F29:G31 F28 T25:V25 X25:Z25 T26:V26 X26:Z26 B26 E26 P28:R29 P26:Q26 E27 X30:AA30 X31:AA31 AA3 AA11 AA12 AA28 AA27 AA21 A3:B3 A2:B2 E2 E25 B29 E29 B30 E30 E31 E3 B4 E4 B5 E5 E6 E1 P27:R27 P16:Q16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>